--- a/plan/glチーム制作ガントチャート.xlsx
+++ b/plan/glチーム制作ガントチャート.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>要素</t>
     <rPh sb="0" eb="2">
@@ -153,13 +153,6 @@
   </si>
   <si>
     <t>アニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>坂本</t>
-    <rPh sb="0" eb="2">
-      <t>サカモト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -337,12 +330,34 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ライティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションエディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂本</t>
+    <rPh sb="0" eb="2">
+      <t>サカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +407,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +448,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -439,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,8 +569,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AT119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -881,7 +929,7 @@
     <col min="10" max="10" width="2.90625" customWidth="1"/>
     <col min="11" max="11" width="3.453125" customWidth="1"/>
     <col min="12" max="12" width="3" style="9" customWidth="1"/>
-    <col min="13" max="13" width="3.453125" customWidth="1"/>
+    <col min="13" max="13" width="3.453125" style="37" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
     <col min="15" max="15" width="3" style="17" customWidth="1"/>
     <col min="16" max="16" width="2.36328125" style="20" customWidth="1"/>
@@ -889,7 +937,7 @@
     <col min="18" max="18" width="3.1796875" customWidth="1"/>
     <col min="19" max="21" width="3" customWidth="1"/>
     <col min="22" max="23" width="3" style="17" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
+    <col min="24" max="24" width="4.90625" style="37" customWidth="1"/>
     <col min="25" max="26" width="3" customWidth="1"/>
     <col min="27" max="29" width="3" style="31" customWidth="1"/>
     <col min="30" max="45" width="3" customWidth="1"/>
@@ -921,7 +969,7 @@
       <c r="L2" s="3">
         <v>12</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="33">
         <v>12</v>
       </c>
       <c r="N2" s="3">
@@ -954,7 +1002,7 @@
       <c r="W2" s="13">
         <v>12</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="33">
         <v>12</v>
       </c>
       <c r="Y2" s="3">
@@ -1052,7 +1100,7 @@
       <c r="L3" s="4">
         <v>3</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="34">
         <v>4</v>
       </c>
       <c r="N3" s="4">
@@ -1085,7 +1133,7 @@
       <c r="W3" s="14">
         <v>14</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="34">
         <v>15</v>
       </c>
       <c r="Y3" s="4">
@@ -1117,35 +1165,35 @@
     </row>
     <row r="4" spans="2:46" s="3" customFormat="1" ht="167.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="33" t="s">
-        <v>45</v>
+      <c r="M4" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="15"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
-      <c r="X4" s="2" t="s">
-        <v>46</v>
+      <c r="X4" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1179,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
         <f>SUM(F5:AT5)</f>
@@ -1197,7 +1245,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11">
+      <c r="M5" s="36">
         <v>1</v>
       </c>
       <c r="N5" s="11"/>
@@ -1210,7 +1258,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
-      <c r="X5" s="7"/>
+      <c r="X5" s="36"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="30"/>
@@ -1257,7 +1305,7 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="M6" s="36">
         <v>1</v>
       </c>
       <c r="N6" s="11"/>
@@ -1270,7 +1318,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="36"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="30"/>
@@ -1311,7 +1359,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="11"/>
       <c r="O7" s="16"/>
       <c r="P7" s="19"/>
@@ -1322,7 +1370,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="36"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="30"/>
@@ -1351,21 +1399,23 @@
         <v>14</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="11"/>
       <c r="O8" s="16"/>
       <c r="P8" s="19"/>
@@ -1376,7 +1426,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="30"/>
@@ -1405,21 +1455,23 @@
         <v>15</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="11"/>
       <c r="O9" s="16"/>
       <c r="P9" s="19"/>
@@ -1430,7 +1482,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
-      <c r="X9" s="7"/>
+      <c r="X9" s="36"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="30"/>
@@ -1469,7 +1521,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="11"/>
       <c r="O10" s="16"/>
       <c r="P10" s="19"/>
@@ -1480,7 +1532,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="36"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="30"/>
@@ -1519,7 +1571,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="11"/>
       <c r="O11" s="16"/>
       <c r="P11" s="19"/>
@@ -1530,7 +1582,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
-      <c r="X11" s="7"/>
+      <c r="X11" s="36"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="30"/>
@@ -1571,7 +1623,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="11"/>
       <c r="O12" s="16"/>
       <c r="P12" s="19"/>
@@ -1582,7 +1634,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="36"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="30"/>
@@ -1611,21 +1663,23 @@
         <v>17</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="11"/>
       <c r="O13" s="16"/>
       <c r="P13" s="19"/>
@@ -1636,7 +1690,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
-      <c r="X13" s="7"/>
+      <c r="X13" s="36"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="30"/>
@@ -1675,7 +1729,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="11"/>
       <c r="O14" s="16"/>
       <c r="P14" s="19"/>
@@ -1686,7 +1740,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="36"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="30"/>
@@ -1712,24 +1766,26 @@
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="11"/>
       <c r="O15" s="16"/>
       <c r="P15" s="19"/>
@@ -1740,7 +1796,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="36"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="30"/>
@@ -1779,7 +1835,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="11"/>
       <c r="O16" s="16"/>
       <c r="P16" s="19"/>
@@ -1790,7 +1846,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
-      <c r="X16" s="7"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="30"/>
@@ -1831,7 +1887,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="11"/>
       <c r="O17" s="16"/>
       <c r="P17" s="19"/>
@@ -1842,7 +1898,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="36"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="30"/>
@@ -1871,21 +1927,23 @@
         <v>18</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="11"/>
       <c r="O18" s="16"/>
       <c r="P18" s="19"/>
@@ -1896,7 +1954,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="36"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="30"/>
@@ -1922,24 +1980,26 @@
     </row>
     <row r="19" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11">
+        <v>1</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="11"/>
       <c r="O19" s="16"/>
       <c r="P19" s="19"/>
@@ -1950,7 +2010,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="36"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="30"/>
@@ -1989,7 +2049,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="11"/>
       <c r="O20" s="16"/>
       <c r="P20" s="19"/>
@@ -2000,7 +2060,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="36"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="30"/>
@@ -2029,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
@@ -2043,7 +2103,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="11"/>
       <c r="O21" s="16"/>
       <c r="P21" s="19"/>
@@ -2054,7 +2114,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="36"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="30"/>
@@ -2093,7 +2153,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="11"/>
       <c r="O22" s="16"/>
       <c r="P22" s="19"/>
@@ -2104,7 +2164,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
-      <c r="X22" s="7"/>
+      <c r="X22" s="36"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="30"/>
@@ -2130,24 +2190,26 @@
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="11"/>
       <c r="O23" s="16"/>
       <c r="P23" s="19"/>
@@ -2158,7 +2220,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="36"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="30"/>
@@ -2184,24 +2246,26 @@
     </row>
     <row r="24" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B24" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="11"/>
       <c r="O24" s="16"/>
       <c r="P24" s="19"/>
@@ -2212,7 +2276,7 @@
       <c r="U24" s="7"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="36"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="30"/>
@@ -2251,7 +2315,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="11"/>
       <c r="O25" s="16"/>
       <c r="P25" s="19"/>
@@ -2262,7 +2326,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="36"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="30"/>
@@ -2301,7 +2365,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="11"/>
       <c r="O26" s="16"/>
       <c r="P26" s="19"/>
@@ -2312,7 +2376,7 @@
       <c r="U26" s="7"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="36"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="30"/>
@@ -2341,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="0"/>
@@ -2355,7 +2419,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="11"/>
       <c r="O27" s="16"/>
       <c r="P27" s="19"/>
@@ -2366,7 +2430,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="36"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="30"/>
@@ -2405,7 +2469,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="11"/>
       <c r="O28" s="16"/>
       <c r="P28" s="19"/>
@@ -2416,7 +2480,7 @@
       <c r="U28" s="7"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="36"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="30"/>
@@ -2442,7 +2506,7 @@
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="7">
@@ -2457,7 +2521,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="11"/>
       <c r="O29" s="16"/>
       <c r="P29" s="19"/>
@@ -2468,7 +2532,7 @@
       <c r="U29" s="7"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
-      <c r="X29" s="7"/>
+      <c r="X29" s="36"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="30"/>
@@ -2494,7 +2558,7 @@
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B30" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="7">
@@ -2509,7 +2573,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="11"/>
       <c r="O30" s="16"/>
       <c r="P30" s="19"/>
@@ -2520,7 +2584,7 @@
       <c r="U30" s="7"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="36"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="30"/>
@@ -2546,7 +2610,7 @@
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="7">
@@ -2561,7 +2625,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="11"/>
       <c r="O31" s="16"/>
       <c r="P31" s="19"/>
@@ -2572,7 +2636,7 @@
       <c r="U31" s="7"/>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
-      <c r="X31" s="7"/>
+      <c r="X31" s="36"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="30"/>
@@ -2611,7 +2675,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="11"/>
       <c r="O32" s="16"/>
       <c r="P32" s="19"/>
@@ -2622,7 +2686,7 @@
       <c r="U32" s="7"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
-      <c r="X32" s="7"/>
+      <c r="X32" s="36"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="30"/>
@@ -2659,7 +2723,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="11"/>
       <c r="O33" s="16"/>
       <c r="P33" s="19"/>
@@ -2670,7 +2734,7 @@
       <c r="U33" s="7"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
-      <c r="X33" s="7"/>
+      <c r="X33" s="36"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="30"/>
@@ -2699,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
@@ -2715,7 +2779,7 @@
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="11"/>
       <c r="O34" s="16"/>
       <c r="P34" s="19"/>
@@ -2726,7 +2790,7 @@
       <c r="U34" s="7"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
-      <c r="X34" s="7"/>
+      <c r="X34" s="36"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="30"/>
@@ -2752,10 +2816,10 @@
     </row>
     <row r="35" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
@@ -2771,7 +2835,7 @@
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="M35" s="36"/>
       <c r="N35" s="11"/>
       <c r="O35" s="16"/>
       <c r="P35" s="19"/>
@@ -2782,7 +2846,7 @@
       <c r="U35" s="7"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="7"/>
+      <c r="X35" s="36"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="30"/>
@@ -2808,10 +2872,10 @@
     </row>
     <row r="36" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="0"/>
@@ -2827,7 +2891,7 @@
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="11"/>
       <c r="O36" s="16"/>
       <c r="P36" s="19"/>
@@ -2838,7 +2902,7 @@
       <c r="U36" s="7"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
-      <c r="X36" s="7"/>
+      <c r="X36" s="36"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="30"/>
@@ -2877,7 +2941,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="M37" s="36"/>
       <c r="N37" s="11"/>
       <c r="O37" s="16"/>
       <c r="P37" s="19"/>
@@ -2888,7 +2952,7 @@
       <c r="U37" s="7"/>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="36"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="30"/>
@@ -2914,24 +2978,26 @@
     </row>
     <row r="38" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="11"/>
+      <c r="J38" s="11">
+        <v>1</v>
+      </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="11"/>
       <c r="O38" s="16"/>
       <c r="P38" s="19"/>
@@ -2942,7 +3008,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
-      <c r="X38" s="7"/>
+      <c r="X38" s="36"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="30"/>
@@ -2981,7 +3047,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="11"/>
       <c r="O39" s="16"/>
       <c r="P39" s="19"/>
@@ -2992,7 +3058,7 @@
       <c r="U39" s="7"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
-      <c r="X39" s="7"/>
+      <c r="X39" s="36"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="30"/>
@@ -3030,7 +3096,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="11"/>
       <c r="O40" s="16"/>
       <c r="P40" s="19"/>
@@ -3041,7 +3107,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="36"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="30"/>
@@ -3067,7 +3133,7 @@
     </row>
     <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="7">
@@ -3082,7 +3148,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="M41" s="36"/>
       <c r="N41" s="11"/>
       <c r="O41" s="16"/>
       <c r="P41" s="19"/>
@@ -3093,7 +3159,7 @@
       <c r="U41" s="7"/>
       <c r="V41" s="16"/>
       <c r="W41" s="16"/>
-      <c r="X41" s="7"/>
+      <c r="X41" s="36"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="30"/>
@@ -3119,10 +3185,10 @@
     </row>
     <row r="42" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B42" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" si="0"/>
@@ -3136,7 +3202,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="11"/>
       <c r="O42" s="16"/>
       <c r="P42" s="19"/>
@@ -3147,7 +3213,7 @@
       <c r="U42" s="7"/>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
-      <c r="X42" s="7"/>
+      <c r="X42" s="36"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="30"/>
@@ -3173,10 +3239,10 @@
     </row>
     <row r="43" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B43" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="0"/>
@@ -3190,7 +3256,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="M43" s="36"/>
       <c r="N43" s="11"/>
       <c r="O43" s="16"/>
       <c r="P43" s="19"/>
@@ -3201,7 +3267,7 @@
       <c r="U43" s="7"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
-      <c r="X43" s="7"/>
+      <c r="X43" s="36"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="30"/>
@@ -3239,7 +3305,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="11"/>
       <c r="O44" s="16"/>
       <c r="P44" s="19"/>
@@ -3250,7 +3316,7 @@
       <c r="U44" s="7"/>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
-      <c r="X44" s="7"/>
+      <c r="X44" s="36"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="30"/>
@@ -3288,7 +3354,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="11"/>
       <c r="O45" s="16"/>
       <c r="P45" s="19"/>
@@ -3299,7 +3365,7 @@
       <c r="U45" s="7"/>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
-      <c r="X45" s="7"/>
+      <c r="X45" s="36"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="30"/>
@@ -3340,7 +3406,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="11"/>
       <c r="O46" s="16"/>
       <c r="P46" s="19"/>
@@ -3351,7 +3417,7 @@
       <c r="U46" s="7"/>
       <c r="V46" s="16"/>
       <c r="W46" s="16"/>
-      <c r="X46" s="7"/>
+      <c r="X46" s="36"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="30"/>
@@ -3377,7 +3443,7 @@
     </row>
     <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B47" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="7">
@@ -3388,11 +3454,10 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="12"/>
-      <c r="X47" s="7"/>
+      <c r="X47" s="36"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="30"/>
@@ -3426,11 +3491,10 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="12"/>
-      <c r="X48" s="7"/>
+      <c r="X48" s="36"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="30"/>
@@ -3454,8 +3518,13 @@
       <c r="AS48" s="7"/>
       <c r="AT48" s="8"/>
     </row>
-    <row r="49" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C49" s="25"/>
+    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B49" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="D49" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3464,11 +3533,10 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="12"/>
-      <c r="X49" s="7"/>
+      <c r="X49" s="36"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="30"/>
@@ -3492,7 +3560,7 @@
       <c r="AS49" s="7"/>
       <c r="AT49" s="8"/>
     </row>
-    <row r="50" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C50" s="25"/>
       <c r="D50" s="7">
         <f t="shared" si="0"/>
@@ -3501,7 +3569,7 @@
       <c r="E50" s="7"/>
       <c r="L50"/>
       <c r="P50" s="17"/>
-      <c r="X50" s="7"/>
+      <c r="X50" s="36"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="30"/>
@@ -3525,16 +3593,24 @@
       <c r="AS50" s="7"/>
       <c r="AT50" s="8"/>
     </row>
-    <row r="51" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C51" s="25"/>
+    <row r="51" spans="2:46" ht="14" x14ac:dyDescent="0.2">
+      <c r="B51" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="D51" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="7"/>
+      <c r="J51">
+        <v>1</v>
+      </c>
       <c r="L51"/>
       <c r="P51" s="17"/>
-      <c r="X51" s="7"/>
+      <c r="X51" s="36"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="30"/>
@@ -3558,7 +3634,7 @@
       <c r="AS51" s="7"/>
       <c r="AT51" s="8"/>
     </row>
-    <row r="52" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C52" s="25"/>
       <c r="D52" s="7">
         <f t="shared" si="0"/>
@@ -3567,7 +3643,7 @@
       <c r="E52" s="7"/>
       <c r="L52"/>
       <c r="P52" s="17"/>
-      <c r="X52" s="7"/>
+      <c r="X52" s="36"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="30"/>
@@ -3591,7 +3667,7 @@
       <c r="AS52" s="7"/>
       <c r="AT52" s="8"/>
     </row>
-    <row r="53" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C53" s="25"/>
       <c r="D53" s="7">
         <f t="shared" si="0"/>
@@ -3600,7 +3676,7 @@
       <c r="E53" s="7"/>
       <c r="L53"/>
       <c r="P53" s="17"/>
-      <c r="X53" s="7"/>
+      <c r="X53" s="36"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="30"/>
@@ -3624,7 +3700,7 @@
       <c r="AS53" s="7"/>
       <c r="AT53" s="8"/>
     </row>
-    <row r="54" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C54" s="25"/>
       <c r="D54" s="7">
         <f t="shared" si="0"/>
@@ -3633,7 +3709,7 @@
       <c r="E54" s="7"/>
       <c r="L54"/>
       <c r="P54" s="17"/>
-      <c r="X54" s="7"/>
+      <c r="X54" s="36"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="30"/>
@@ -3657,7 +3733,7 @@
       <c r="AS54" s="7"/>
       <c r="AT54" s="8"/>
     </row>
-    <row r="55" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C55" s="25"/>
       <c r="D55" s="7">
         <f t="shared" si="0"/>
@@ -3666,7 +3742,7 @@
       <c r="E55" s="7"/>
       <c r="L55"/>
       <c r="P55" s="17"/>
-      <c r="X55" s="7"/>
+      <c r="X55" s="36"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="30"/>
@@ -3690,7 +3766,7 @@
       <c r="AS55" s="7"/>
       <c r="AT55" s="8"/>
     </row>
-    <row r="56" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C56" s="25"/>
       <c r="D56" s="7">
         <f t="shared" si="0"/>
@@ -3699,7 +3775,7 @@
       <c r="E56" s="7"/>
       <c r="L56"/>
       <c r="P56" s="17"/>
-      <c r="X56" s="7"/>
+      <c r="X56" s="36"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="30"/>
@@ -3723,7 +3799,7 @@
       <c r="AS56" s="7"/>
       <c r="AT56" s="8"/>
     </row>
-    <row r="57" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C57" s="25"/>
       <c r="D57" s="7">
         <f t="shared" si="0"/>
@@ -3732,7 +3808,7 @@
       <c r="E57" s="7"/>
       <c r="L57"/>
       <c r="P57" s="17"/>
-      <c r="X57" s="7"/>
+      <c r="X57" s="36"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="30"/>
@@ -3756,7 +3832,7 @@
       <c r="AS57" s="7"/>
       <c r="AT57" s="8"/>
     </row>
-    <row r="58" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C58" s="25"/>
       <c r="D58" s="7">
         <f t="shared" si="0"/>
@@ -3765,7 +3841,7 @@
       <c r="E58" s="7"/>
       <c r="L58"/>
       <c r="P58" s="17"/>
-      <c r="X58" s="7"/>
+      <c r="X58" s="36"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="30"/>
@@ -3789,7 +3865,7 @@
       <c r="AS58" s="7"/>
       <c r="AT58" s="8"/>
     </row>
-    <row r="59" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C59" s="25"/>
       <c r="D59" s="7">
         <f t="shared" si="0"/>
@@ -3798,7 +3874,7 @@
       <c r="E59" s="7"/>
       <c r="L59"/>
       <c r="P59" s="17"/>
-      <c r="X59" s="7"/>
+      <c r="X59" s="36"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="30"/>
@@ -3822,7 +3898,7 @@
       <c r="AS59" s="7"/>
       <c r="AT59" s="8"/>
     </row>
-    <row r="60" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C60" s="25"/>
       <c r="D60" s="7">
         <f t="shared" si="0"/>
@@ -3831,7 +3907,7 @@
       <c r="E60" s="7"/>
       <c r="L60"/>
       <c r="P60" s="17"/>
-      <c r="X60" s="7"/>
+      <c r="X60" s="36"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="30"/>
@@ -3855,7 +3931,7 @@
       <c r="AS60" s="7"/>
       <c r="AT60" s="8"/>
     </row>
-    <row r="61" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C61" s="25"/>
       <c r="D61" s="7">
         <f t="shared" si="0"/>
@@ -3864,7 +3940,7 @@
       <c r="E61" s="7"/>
       <c r="L61"/>
       <c r="P61" s="17"/>
-      <c r="X61" s="7"/>
+      <c r="X61" s="36"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="30"/>
@@ -3888,7 +3964,7 @@
       <c r="AS61" s="7"/>
       <c r="AT61" s="8"/>
     </row>
-    <row r="62" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C62" s="25"/>
       <c r="D62" s="7">
         <f t="shared" si="0"/>
@@ -3897,7 +3973,7 @@
       <c r="E62" s="7"/>
       <c r="L62"/>
       <c r="P62" s="17"/>
-      <c r="X62" s="7"/>
+      <c r="X62" s="36"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="30"/>
@@ -3921,12 +3997,12 @@
       <c r="AS62" s="7"/>
       <c r="AT62" s="8"/>
     </row>
-    <row r="63" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C63" s="25"/>
       <c r="L63"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C64" s="25"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -3935,7 +4011,6 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="12"/>
@@ -3953,7 +4028,6 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
       <c r="N65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
@@ -3970,7 +4044,6 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
       <c r="N66" s="12"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
@@ -3987,7 +4060,6 @@
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
@@ -4004,7 +4076,6 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
       <c r="N68" s="12"/>
       <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
@@ -4021,7 +4092,6 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
@@ -4038,7 +4108,6 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
       <c r="N70" s="12"/>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
@@ -4055,7 +4124,6 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
       <c r="N71" s="12"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
@@ -4072,7 +4140,6 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
       <c r="N72" s="12"/>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
@@ -4089,7 +4156,6 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
       <c r="N73" s="12"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
@@ -4106,7 +4172,6 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
       <c r="N74" s="12"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
@@ -4123,7 +4188,6 @@
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
       <c r="N75" s="12"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
@@ -4140,7 +4204,6 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
       <c r="N76" s="12"/>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
@@ -4157,7 +4220,6 @@
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
       <c r="N77" s="12"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
@@ -4174,7 +4236,6 @@
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
       <c r="N78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
@@ -4191,7 +4252,6 @@
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
       <c r="N79" s="12"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
@@ -4208,7 +4268,6 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
       <c r="N80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
@@ -4225,7 +4284,6 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
       <c r="N81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
@@ -4242,7 +4300,6 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
       <c r="N82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
@@ -4259,7 +4316,6 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
       <c r="N83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
@@ -4276,7 +4332,6 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
@@ -4293,7 +4348,6 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
       <c r="N85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
@@ -4310,7 +4364,6 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
       <c r="N86" s="12"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
@@ -4327,7 +4380,6 @@
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
       <c r="N87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
@@ -4344,7 +4396,6 @@
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
       <c r="N88" s="12"/>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
@@ -4361,7 +4412,6 @@
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
       <c r="N89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
@@ -4378,7 +4428,6 @@
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
       <c r="N90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
@@ -4395,7 +4444,6 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
       <c r="N91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
@@ -4412,7 +4460,6 @@
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
       <c r="N92" s="12"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
@@ -4429,7 +4476,6 @@
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
       <c r="N93" s="12"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
@@ -4446,7 +4492,6 @@
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
       <c r="N94" s="12"/>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
@@ -4463,7 +4508,6 @@
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
       <c r="N95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
@@ -4480,7 +4524,6 @@
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
       <c r="N96" s="12"/>
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
@@ -4497,7 +4540,6 @@
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
       <c r="N97" s="12"/>
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
@@ -4514,7 +4556,6 @@
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
       <c r="N98" s="12"/>
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
@@ -4531,7 +4572,6 @@
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
       <c r="N99" s="12"/>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
@@ -4548,7 +4588,6 @@
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
       <c r="N100" s="12"/>
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
@@ -4565,7 +4604,6 @@
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
       <c r="N101" s="12"/>
       <c r="Q101" s="12"/>
       <c r="R101" s="12"/>
@@ -4582,7 +4620,6 @@
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
       <c r="N102" s="12"/>
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
@@ -4598,7 +4635,6 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
       <c r="N103" s="12"/>
       <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
@@ -4614,7 +4650,6 @@
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
       <c r="N104" s="12"/>
       <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
@@ -4630,7 +4665,6 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
       <c r="N105" s="12"/>
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
@@ -4646,7 +4680,6 @@
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
       <c r="N106" s="12"/>
       <c r="Q106" s="12"/>
       <c r="R106" s="12"/>
@@ -4662,7 +4695,6 @@
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
       <c r="N107" s="12"/>
       <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
@@ -4678,7 +4710,6 @@
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
       <c r="N108" s="12"/>
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
@@ -4694,7 +4725,6 @@
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
       <c r="N109" s="12"/>
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
@@ -4710,7 +4740,6 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
       <c r="N110" s="12"/>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
@@ -4726,7 +4755,6 @@
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
       <c r="N111" s="12"/>
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
@@ -4742,7 +4770,6 @@
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
       <c r="N112" s="12"/>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
@@ -4758,7 +4785,6 @@
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
       <c r="N113" s="12"/>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
@@ -4774,7 +4800,6 @@
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
       <c r="N114" s="12"/>
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
@@ -4790,7 +4815,6 @@
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
       <c r="N115" s="12"/>
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
@@ -4806,7 +4830,6 @@
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
       <c r="N116" s="12"/>
       <c r="Q116" s="12"/>
       <c r="R116" s="12"/>
@@ -4822,7 +4845,6 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
       <c r="N117" s="12"/>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
@@ -4838,7 +4860,6 @@
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
       <c r="N118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
@@ -4854,7 +4875,6 @@
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
       <c r="N119" s="12"/>
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
@@ -4864,12 +4884,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F43 F41:H41 H43:AS43 F42:AS42 J41:AS41 F27:AS40 F44:AS52">
+  <conditionalFormatting sqref="F43 F41:H41 H43:AS43 J41:AS41 F27:AS40 F42:AS42 F52:AS52 F51:J51 L51:AS51 F44:AS50">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:AT62">
+  <conditionalFormatting sqref="F52:AT62 F51:J51 L51:AT51 F5:AT50">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/plan/glチーム制作ガントチャート.xlsx
+++ b/plan/glチーム制作ガントチャート.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,15 +404,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,9 +577,6 @@
     </xf>
     <xf numFmtId="56" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AT119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1667,16 +1655,14 @@
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="36"/>
@@ -3593,8 +3579,8 @@
       <c r="AS50" s="7"/>
       <c r="AT50" s="8"/>
     </row>
-    <row r="51" spans="2:46" ht="14" x14ac:dyDescent="0.2">
-      <c r="B51" s="39" t="s">
+    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B51" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="25" t="s">

--- a/plan/glチーム制作ガントチャート.xlsx
+++ b/plan/glチーム制作ガントチャート.xlsx
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AT119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1403,7 +1403,9 @@
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="36"/>
+      <c r="M8" s="36">
+        <v>1</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="16"/>
       <c r="P8" s="19"/>
@@ -1447,7 +1449,7 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1459,7 +1461,9 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="36"/>
+      <c r="M9" s="36">
+        <v>1</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="16"/>
       <c r="P9" s="19"/>
@@ -1655,7 +1659,7 @@
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1665,7 +1669,9 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="36">
+        <v>1</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="16"/>
       <c r="P13" s="19"/>
@@ -1917,7 +1923,7 @@
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1929,7 +1935,9 @@
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="36">
+        <v>1</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="16"/>
       <c r="P18" s="19"/>
@@ -1973,7 +1981,7 @@
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1985,7 +1993,9 @@
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="36">
+        <v>1</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="16"/>
       <c r="P19" s="19"/>
@@ -2079,7 +2089,7 @@
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2089,7 +2099,9 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="36">
+        <v>1</v>
+      </c>
       <c r="N21" s="11"/>
       <c r="O21" s="16"/>
       <c r="P21" s="19"/>
@@ -2395,7 +2407,7 @@
       </c>
       <c r="D27" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2405,7 +2417,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="36"/>
+      <c r="M27" s="36">
+        <v>1</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="16"/>
       <c r="P27" s="19"/>
@@ -2753,7 +2767,7 @@
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -2765,7 +2779,9 @@
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="36"/>
+      <c r="M34" s="36">
+        <v>1</v>
+      </c>
       <c r="N34" s="11"/>
       <c r="O34" s="16"/>
       <c r="P34" s="19"/>
